--- a/taxonomies/budget.xlsx
+++ b/taxonomies/budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\Finanza personale\Spese\taxonomies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\marco\workspace\expensiveAnalyzer\taxonomies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF832A98-0847-4698-BD58-348D5401B865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961897DE-7C45-4C1C-9A08-4957257C690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BD383E4C-3C52-47D0-8F9D-1202BEC4D9AF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Housing</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>SAVINGS:</t>
+  </si>
+  <si>
+    <t>MONTHLY INCOME</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,6 +366,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -695,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF73D81-34DC-4FD9-8B27-3691D74AC9AD}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,10 +717,12 @@
     <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="13.44140625" style="1"/>
+    <col min="6" max="9" width="13.44140625" style="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="13.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -720,88 +731,92 @@
       </c>
       <c r="C1" s="17">
         <f>SUM(B:B)</f>
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="15">
-        <f>1198 -C1</f>
-        <v>199</v>
+        <f>K1 -C1</f>
+        <v>1000</v>
       </c>
       <c r="H1" s="16">
-        <f>G1/1198</f>
-        <v>0.166110183639399</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <f>G1/K1</f>
+        <v>1</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="13">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="12">
-        <f>Benzina!D2 + 8</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="13">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="13">
-        <f>6/3</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="18"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
@@ -809,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
@@ -817,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
@@ -825,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
@@ -833,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
@@ -841,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>8</v>
       </c>
@@ -849,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>

--- a/taxonomies/budget.xlsx
+++ b/taxonomies/budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\marco\workspace\expensiveAnalyzer\taxonomies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Documents\Finanza personale\Spese\taxonomies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961897DE-7C45-4C1C-9A08-4957257C690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8FB209-EB2C-4D33-8059-394DB976A2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BD383E4C-3C52-47D0-8F9D-1202BEC4D9AF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Housing</t>
   </si>
@@ -174,7 +174,16 @@
     <t>SAVINGS:</t>
   </si>
   <si>
-    <t>MONTHLY INCOME</t>
+    <t>INCOME</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>EXPENSIVE</t>
+  </si>
+  <si>
+    <t>Telecommunication</t>
   </si>
 </sst>
 </file>
@@ -216,7 +225,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +292,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE95555"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -307,12 +334,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,10 +408,34 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -379,7 +443,35 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -396,6 +488,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE95555"/>
+      <color rgb="FFF2650E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -408,9 +506,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -448,7 +546,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -554,7 +652,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -696,7 +794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -704,209 +802,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF73D81-34DC-4FD9-8B27-3691D74AC9AD}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6" max="9" width="13.44140625" style="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="13.44140625" style="1"/>
+    <col min="3" max="3" width="4.44140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="13.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="17">
-        <f>SUM(B:B)</f>
-        <v>0</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="15">
-        <f>K1 -C1</f>
-        <v>1000</v>
-      </c>
-      <c r="H1" s="16">
-        <f>G1/K1</f>
-        <v>1</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="C1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="G1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H1" s="20">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="C2" s="22">
+        <f>B2/$H$1</f>
+        <v>0.41736227045075125</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="24">
+        <f>SUM(B:B)</f>
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="C3" s="22">
+        <f>B3/$H$1</f>
+        <v>0.26711185308848079</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="15">
+        <f>H1 -H2</f>
+        <v>191</v>
+      </c>
+      <c r="I3" s="16">
+        <f>H3/1198</f>
+        <v>0.15943238731218698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <f>Benzina!D2 + 8</f>
+        <v>80</v>
+      </c>
+      <c r="C4" s="22">
+        <f>B4/$H$1</f>
+        <v>6.6777963272120197E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="C5" s="22">
+        <f>B5/$H$1</f>
+        <v>4.5909849749582635E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="22">
+        <f>B6/$H$1</f>
+        <v>2.5041736227045076E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="22">
+        <f>B7/$H$1</f>
+        <v>8.3472454090150246E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="12">
+        <v>8</v>
+      </c>
+      <c r="C8" s="23">
+        <f>B8/$H$1</f>
+        <v>6.6777963272120202E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="13">
+        <f>6/3</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="22">
+        <f>B9/$H$1</f>
+        <v>1.6694490818030051E-3</v>
+      </c>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="B10" s="13">
+        <v>2</v>
+      </c>
+      <c r="C10" s="22">
+        <f>B10/$H$1</f>
+        <v>1.6694490818030051E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
+        <f>B11/$H$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22">
+        <f>B12/$H$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>0</v>
-      </c>
       <c r="B13" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="22">
+        <f>B13/$H$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="22">
+        <f>B14/$H$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22">
+        <f>B15/$H$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="B16" s="27">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
+        <f>B16/$H$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28">
+        <f>B17/$H$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="28">
+        <f>B18/$H$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="28">
+        <f>B19/$H$1</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B20" xr:uid="{DFF73D81-34DC-4FD9-8B27-3691D74AC9AD}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
       <sortCondition descending="1" ref="B1:B20"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B17">
     <sortCondition descending="1" ref="B17"/>
   </sortState>
-  <conditionalFormatting sqref="A2:B18">
-    <cfRule type="expression" dxfId="1" priority="4">
+  <conditionalFormatting sqref="A2:C22">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>ISODD(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C2:C99">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C99">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0.1"/>
         <cfvo type="max"/>
